--- a/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/organization.customer.xlsx
+++ b/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/organization.customer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lang/Develop/Source/ox-workshop/vertx-zero/vertx-pin/zero-erp/src/main/resources/plugin/erp/oob/cab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vertx-zero\vertx-pin\zero-erp\src\main\resources\plugin\erp\oob\cab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98864ACE-1E9B-5441-9E5D-9C8F675FB6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91B053F9-CB6E-46EC-952C-3D5412F42744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22560" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BC32819D-176D-6D4B-8CEE-9D375DE1CDB6}"/>
   </bookViews>
   <sheets>
     <sheet name="DATA-PERM" sheetId="2" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="204">
   <si>
     <t>key</t>
   </si>
@@ -392,9 +396,6 @@
     <t>modeRole</t>
   </si>
   <si>
-    <t>458c7376-f0f4-4865-b358-d0ed996458f3</t>
-  </si>
-  <si>
     <t>读取客户</t>
   </si>
   <si>
@@ -519,9 +520,6 @@
   </si>
   <si>
     <t>res.customer.missing</t>
-  </si>
-  <si>
-    <t>e92e39e8-fe65-49c4-9655-bec46973da08</t>
   </si>
   <si>
     <t>/api/customer/by/sigma</t>
@@ -658,6 +656,42 @@
   </si>
   <si>
     <t>2d0f56d0-c955-41f7-9cc0-3ab65a4d2768</t>
+  </si>
+  <si>
+    <t>perm.customer.imp.exp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>458c7376-f0f4-4865-b358-d0ed996458f3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d4a62c4b-a669-4c8b-96b3-1852ff4cfb68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>res.customer.by.codePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>e92e39e8-fe65-49c4-9655-bec46973da08</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1a6f2cf4-897b-4ca7-af9b-b8b5c13647be</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act.customer.by.codePrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/api/customerByPrice/:key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读取单个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -884,7 +918,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -924,28 +957,10 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -959,9 +974,30 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -1005,7 +1041,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1301,320 +1337,319 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D6C9C3-8DFE-A442-A082-10767386D931}">
-  <dimension ref="A2:K64"/>
+  <dimension ref="A2:K66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25"/>
   <cols>
-    <col min="1" max="2" width="55.33203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.5" style="14" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="36.83203125" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.5" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="54.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="25" style="4" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11" style="4"/>
+    <col min="1" max="2" width="55.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.625" style="14" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="54.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="11" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" s="28" customFormat="1">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:7" s="21" customFormat="1">
+      <c r="A2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+    </row>
+    <row r="3" spans="1:7" s="21" customFormat="1">
+      <c r="A3" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B3" s="22" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="1:9" s="28" customFormat="1">
-      <c r="A3" s="29" t="s">
+      <c r="C3" s="22" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="D3" s="22" t="s">
         <v>183</v>
       </c>
-      <c r="C3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:7" s="21" customFormat="1">
+      <c r="A4" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="C4" s="23" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="28" customFormat="1">
-      <c r="A4" s="30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="D4" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="C4" s="30" t="s">
+    </row>
+    <row r="5" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A5" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>187</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="28" customFormat="1">
-      <c r="A5" s="10" t="s">
+    </row>
+    <row r="6" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A6" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="32" t="s">
+      <c r="B6" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D5" s="33" t="s">
+      <c r="B7" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" s="28" customFormat="1">
-      <c r="A6" s="10" t="s">
+      <c r="D7" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A8" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D6" s="33" t="s">
+      <c r="B8" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="28" customFormat="1">
-      <c r="A7" s="10" t="s">
+      <c r="D8" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A9" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D7" s="33" t="s">
+      <c r="B9" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="28" customFormat="1">
-      <c r="A8" s="10" t="s">
+      <c r="D9" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" s="21" customFormat="1" ht="21">
+      <c r="A10" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="33" t="s">
+      <c r="B10" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="25" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="28" customFormat="1">
-      <c r="A9" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="28" customFormat="1">
-      <c r="A10" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="31" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="32" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="D10" s="26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="10" t="s">
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="E16" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
+      <c r="E17" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
+      <c r="E18" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="E19" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+      <c r="E20" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
@@ -1623,1044 +1658,1098 @@
       <c r="B25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="31"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:9">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="H27" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="7" t="s">
+      <c r="I27" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:9">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B28" s="16" t="str">
-        <f t="shared" ref="B28:B42" si="0">A48</f>
+      <c r="B28" s="15" t="str">
+        <f t="shared" ref="B28:B41" si="0">A49</f>
         <v>458c7376-f0f4-4865-b358-d0ed996458f3</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="15" t="str">
         <f>A15</f>
         <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
       </c>
-      <c r="D28" s="13" t="s">
+      <c r="D28" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="11">
         <v>1</v>
       </c>
-      <c r="I28" s="12"/>
+      <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="16" t="str">
+      <c r="B29" s="15" t="str">
         <f t="shared" si="0"/>
         <v>78a9993c-726e-4014-957d-0c6890c0a5f8</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="15" t="str">
         <f>A16</f>
         <v>0671d6ac-3f93-4f61-85f0-de1ca5f7624f</v>
       </c>
-      <c r="D29" s="13" t="s">
+      <c r="D29" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="13" t="s">
+      <c r="F29" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H29" s="12">
+      <c r="H29" s="11">
         <v>4</v>
       </c>
-      <c r="I29" s="12"/>
+      <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="16" t="str">
+      <c r="B30" s="15" t="str">
         <f t="shared" si="0"/>
         <v>2db7a0f1-dea9-4af9-8734-9cba63968bc7</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="15" t="str">
         <f>A17</f>
         <v>94e37b3a-f89e-45be-b5c5-17f929de6bab</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F30" s="13" t="s">
+      <c r="F30" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="11">
         <v>8</v>
       </c>
-      <c r="I30" s="12"/>
+      <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="16" t="str">
+      <c r="B31" s="15" t="str">
         <f t="shared" si="0"/>
         <v>18cfbd6d-d428-4052-9789-446ce7e038e2</v>
       </c>
-      <c r="C31" s="16" t="str">
+      <c r="C31" s="15" t="str">
         <f>A18</f>
         <v>c7def585-b042-44ea-8649-236260bd67f8</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="13" t="s">
+      <c r="F31" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="H31" s="12">
+      <c r="H31" s="11">
         <v>12</v>
       </c>
-      <c r="I31" s="12"/>
+      <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B32" s="16" t="str">
+      <c r="B32" s="15" t="str">
         <f t="shared" si="0"/>
         <v>c6a0e73d-743d-4939-b4de-0ebeeb5c4c6d</v>
       </c>
-      <c r="C32" s="16" t="str">
+      <c r="C32" s="15" t="str">
         <f>A15</f>
         <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H32" s="12">
+      <c r="H32" s="11">
         <v>1</v>
       </c>
-      <c r="I32" s="12"/>
+      <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B33" s="15" t="str">
+        <f>A54</f>
         <v>42cda2bc-8d3d-47ea-b116-d8e85ce414a6</v>
       </c>
-      <c r="C33" s="16" t="str">
+      <c r="C33" s="15" t="str">
         <f>A17</f>
         <v>94e37b3a-f89e-45be-b5c5-17f929de6bab</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F33" s="13" t="s">
+      <c r="F33" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="11">
         <v>8</v>
       </c>
-      <c r="I33" s="12"/>
+      <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:11">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="B34" s="15" t="str">
+        <f>A55</f>
         <v>3b0ab783-691d-4c17-9246-fa336668bcb3</v>
       </c>
-      <c r="C34" s="16" t="str">
+      <c r="C34" s="15" t="str">
         <f>A18</f>
         <v>c7def585-b042-44ea-8649-236260bd67f8</v>
       </c>
-      <c r="D34" s="13" t="s">
+      <c r="D34" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="F34" s="13" t="s">
+      <c r="F34" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="11">
         <v>12</v>
       </c>
-      <c r="I34" s="12"/>
+      <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:11">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="15" t="str">
         <f t="shared" si="0"/>
         <v>624a2c20-02a9-4c30-9ae3-a2a46eda096a</v>
       </c>
-      <c r="C35" s="16" t="str">
+      <c r="C35" s="15" t="str">
         <f>A19</f>
         <v>e8c2a4d4-2174-49eb-93c3-71185f1a9588</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F35" s="13" t="s">
+      <c r="F35" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="H35" s="12">
+      <c r="H35" s="11">
         <v>3</v>
       </c>
-      <c r="I35" s="12"/>
+      <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:11">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="15" t="str">
         <f t="shared" si="0"/>
         <v>3cebab49-2b4b-4868-a601-40bc0ea56071</v>
       </c>
-      <c r="C36" s="16" t="str">
+      <c r="C36" s="15" t="str">
         <f>A19</f>
         <v>e8c2a4d4-2174-49eb-93c3-71185f1a9588</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="12">
+      <c r="H36" s="11">
         <v>3</v>
       </c>
-      <c r="I36" s="12"/>
+      <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="15" t="str">
         <f t="shared" si="0"/>
         <v>a8efdda0-0119-467d-a989-83fdb78534c2</v>
       </c>
-      <c r="C37" s="16" t="str">
+      <c r="C37" s="15" t="str">
         <f>A19</f>
         <v>e8c2a4d4-2174-49eb-93c3-71185f1a9588</v>
       </c>
-      <c r="D37" s="13" t="s">
+      <c r="D37" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="F37" s="13" t="s">
+      <c r="F37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="11">
         <v>11</v>
       </c>
-      <c r="I37" s="12"/>
+      <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="15" t="str">
         <f t="shared" si="0"/>
         <v>98728a47-b5c7-495d-8cae-5cd1c7613b78</v>
       </c>
-      <c r="C38" s="16" t="str">
+      <c r="C38" s="15" t="str">
         <f>A20</f>
         <v>fcae08ce-0f7c-440b-a6a5-1ac56400a8b2</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F38" s="13" t="s">
+      <c r="F38" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="11">
         <v>5</v>
       </c>
-      <c r="I38" s="12"/>
+      <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="15" t="str">
         <f t="shared" si="0"/>
         <v>a627e764-72d0-421d-af58-44dc17716199</v>
       </c>
-      <c r="C39" s="16" t="str">
+      <c r="C39" s="15" t="str">
         <f>A20</f>
         <v>fcae08ce-0f7c-440b-a6a5-1ac56400a8b2</v>
       </c>
-      <c r="D39" s="13" t="s">
+      <c r="D39" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="13" t="s">
+      <c r="F39" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="11">
         <v>3</v>
       </c>
-      <c r="I39" s="12"/>
+      <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B40" s="16" t="str">
+      <c r="B40" s="15" t="str">
         <f t="shared" si="0"/>
         <v>f32bc720-a63a-4632-a283-11238a7e62f4</v>
       </c>
-      <c r="C40" s="16" t="str">
+      <c r="C40" s="15" t="str">
         <f>A15</f>
         <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
       </c>
-      <c r="D40" s="13" t="s">
+      <c r="D40" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="H40" s="12">
+      <c r="H40" s="11">
         <v>1</v>
       </c>
-      <c r="I40" s="12"/>
+      <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B41" s="16" t="str">
+      <c r="B41" s="15" t="str">
         <f t="shared" si="0"/>
         <v>539e8815-de31-450b-a7fd-bd6ad259b48d</v>
       </c>
-      <c r="C41" s="16" t="str">
+      <c r="C41" s="15" t="str">
         <f>A15</f>
         <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F41" s="13" t="s">
+      <c r="F41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="11">
         <v>1</v>
       </c>
-      <c r="I41" s="12"/>
+      <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:11">
-      <c r="A42" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="B42" s="16" t="str">
-        <f t="shared" si="0"/>
+      <c r="A42" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B42" s="15" t="str">
+        <f>A63</f>
         <v>e0a1bfe4-a712-43c3-bad9-2897181eda18</v>
       </c>
-      <c r="C42" s="16" t="str">
+      <c r="C42" s="15" t="str">
         <f>A15</f>
         <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="H42" s="11">
+        <v>1</v>
+      </c>
+      <c r="I42" s="11"/>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="15" t="str">
+        <f>A64</f>
+        <v>d4a62c4b-a669-4c8b-96b3-1852ff4cfb68</v>
+      </c>
+      <c r="C43" s="15" t="str">
+        <f>A15</f>
+        <v>221b2335-05f5-4354-83fc-cd33a9a69dde</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G43" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="11">
+        <v>1</v>
+      </c>
+      <c r="I43" s="11"/>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="3"/>
+      <c r="K44" s="13"/>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="14"/>
+      <c r="G45" s="3"/>
+      <c r="K45" s="13"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D46" s="29"/>
+      <c r="E46" s="29"/>
+      <c r="F46" s="29"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="G47" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="H47" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F48" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="I48" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J48" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K48" s="6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G49" s="11">
+        <v>1</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G50" s="11">
+        <v>4</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F51" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G51" s="11">
+        <v>8</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F52" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G52" s="11">
+        <v>12</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F53" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="E54" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F54" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="11">
+        <v>8</v>
+      </c>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E55" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="11">
+        <v>12</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E56" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="11">
+        <v>3</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E57" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F57" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G57" s="11">
+        <v>3</v>
+      </c>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E58" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F58" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G58" s="11">
+        <v>11</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E59" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F59" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G59" s="11">
+        <v>5</v>
+      </c>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+    </row>
+    <row r="60" spans="1:11">
+      <c r="A60" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D60" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="E60" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G60" s="11">
+        <v>3</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="E61" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F61" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G62" s="11">
+        <v>1</v>
+      </c>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="E42" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="G42" s="12" t="s">
+      <c r="B63" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H42" s="12">
+      <c r="C63" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G63" s="11">
         <v>1</v>
       </c>
-      <c r="I42" s="12"/>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="4"/>
-      <c r="K43" s="14"/>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" s="14"/>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="4"/>
-      <c r="K44" s="14"/>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" s="1" t="s">
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="A64" s="27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F64" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="11">
         <v>1</v>
       </c>
-      <c r="B45" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="A46" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="G46" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H46" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I46" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K46" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="A47" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I47" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J47" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="K47" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G48" s="12">
-        <v>1</v>
-      </c>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K48" s="11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D49" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="12">
-        <v>4</v>
-      </c>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="11"/>
-      <c r="K49" s="11"/>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G50" s="12">
-        <v>8</v>
-      </c>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="11"/>
-      <c r="K50" s="11"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="A51" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>128</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D51" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G51" s="12">
-        <v>12</v>
-      </c>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="11"/>
-      <c r="K51" s="11"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="A52" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E52" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G52" s="12">
-        <v>1</v>
-      </c>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="11"/>
-      <c r="K52" s="11"/>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="A53" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D53" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F53" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G53" s="12">
-        <v>8</v>
-      </c>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="11"/>
-      <c r="K53" s="11"/>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D54" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G54" s="12">
-        <v>12</v>
-      </c>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="11"/>
-      <c r="K54" s="11"/>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="A55" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D55" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F55" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="12">
-        <v>3</v>
-      </c>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="11"/>
-      <c r="K55" s="11"/>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="A56" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="E56" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F56" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G56" s="12">
-        <v>3</v>
-      </c>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="11"/>
-      <c r="K56" s="11"/>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="A57" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F57" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G57" s="12">
-        <v>11</v>
-      </c>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="11"/>
-      <c r="K57" s="11"/>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="A58" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D58" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F58" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="12">
-        <v>5</v>
-      </c>
-      <c r="H58" s="12"/>
-      <c r="I58" s="12"/>
-      <c r="J58" s="11"/>
-      <c r="K58" s="11"/>
-    </row>
-    <row r="59" spans="1:11">
-      <c r="A59" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D59" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F59" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G59" s="12">
-        <v>3</v>
-      </c>
-      <c r="H59" s="12"/>
-      <c r="I59" s="12"/>
-      <c r="J59" s="11"/>
-      <c r="K59" s="11"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="A60" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D60" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="E60" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F60" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G60" s="12">
-        <v>1</v>
-      </c>
-      <c r="H60" s="12"/>
-      <c r="I60" s="12"/>
-      <c r="J60" s="11"/>
-      <c r="K60" s="11"/>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="A61" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C61" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="E61" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F61" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G61" s="12">
-        <v>1</v>
-      </c>
-      <c r="H61" s="12"/>
-      <c r="I61" s="12"/>
-      <c r="J61" s="11"/>
-      <c r="K61" s="11"/>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="A62" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="F62" s="12" t="s">
-        <v>173</v>
-      </c>
-      <c r="G62" s="12">
-        <v>1</v>
-      </c>
-      <c r="H62" s="12"/>
-      <c r="I62" s="12"/>
-      <c r="J62" s="11"/>
-      <c r="K62" s="11"/>
-    </row>
-    <row r="63" spans="1:11">
-      <c r="A63" s="14"/>
-      <c r="C63" s="14"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="4"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="4"/>
-      <c r="K63" s="14"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="A64" s="14"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="K64" s="14"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="A65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="14"/>
+      <c r="G65" s="3"/>
+      <c r="K65" s="13"/>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="A66" s="13"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="K66" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="C12:E12"/>
     <mergeCell ref="C25:I25"/>
-    <mergeCell ref="C45:I45"/>
+    <mergeCell ref="C46:I46"/>
     <mergeCell ref="C2:D2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
